--- a/data/trans_camb/P42C_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Habitat-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 9,91</t>
+          <t>-13,5; 9,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 1,39</t>
+          <t>-19,6; 1,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 9,91</t>
+          <t>-13,5; 9,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 1,39</t>
+          <t>-19,6; 1,15</t>
         </is>
       </c>
     </row>
@@ -725,29 +725,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-60,74; 128,95</t>
+          <t>-58,77; 116,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-78,38; 18,77</t>
+          <t>-77,26; 18,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,74; 128,95</t>
+          <t>-58,77; 116,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,38; 18,77</t>
+          <t>-77,26; 18,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,05; -3,59</t>
+          <t>-13,63; -3,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 1,13</t>
+          <t>-8,66; 1,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,05; -3,59</t>
+          <t>-13,63; -3,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 1,13</t>
+          <t>-8,66; 1,4</t>
         </is>
       </c>
     </row>
@@ -881,29 +881,29 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,12; -23,63</t>
+          <t>-65,9; -24,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,64; 7,94</t>
+          <t>-42,43; 11,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,12; -23,63</t>
+          <t>-65,9; -24,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,64; 7,94</t>
+          <t>-42,43; 11,73</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,81; -9,65</t>
+          <t>-17,82; -9,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -2,37</t>
+          <t>-10,95; -2,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,81; -9,65</t>
+          <t>-17,82; -9,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -2,37</t>
+          <t>-10,95; -2,52</t>
         </is>
       </c>
     </row>
@@ -1037,29 +1037,29 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,79; -38,12</t>
+          <t>-59,57; -37,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,59; -9,02</t>
+          <t>-36,78; -10,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,79; -38,12</t>
+          <t>-59,57; -37,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,59; -9,02</t>
+          <t>-36,78; -10,1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,06; -4,58</t>
+          <t>-13,73; -4,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 12,84</t>
+          <t>1,42; 12,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,06; -4,58</t>
+          <t>-13,73; -4,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 12,84</t>
+          <t>1,42; 12,97</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,98; -19,22</t>
+          <t>-49,88; -18,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,38; 55,78</t>
+          <t>5,18; 57,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,98; -19,22</t>
+          <t>-49,88; -18,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,38; 55,78</t>
+          <t>5,18; 57,21</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 0,39</t>
+          <t>-7,87; 0,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 7,61</t>
+          <t>-0,89; 8,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 0,39</t>
+          <t>-7,87; 0,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 7,61</t>
+          <t>-0,89; 8,1</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 2,0</t>
+          <t>-30,23; 1,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 36,27</t>
+          <t>-3,4; 37,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 2,0</t>
+          <t>-30,23; 1,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 36,27</t>
+          <t>-3,4; 37,2</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,55; -6,35</t>
+          <t>-10,75; -6,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,39</t>
+          <t>-2,61; 2,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,55; -6,35</t>
+          <t>-10,75; -6,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,39</t>
+          <t>-2,61; 2,15</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,08; -28,2</t>
+          <t>-42,42; -27,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 10,47</t>
+          <t>-10,33; 9,52</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-42,08; -28,2</t>
+          <t>-42,42; -27,67</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 10,47</t>
+          <t>-10,33; 9,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42C_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 9,66</t>
+          <t>-13,34; 9,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 1,15</t>
+          <t>-18,6; 2,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 9,66</t>
+          <t>-13,34; 9,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 1,15</t>
+          <t>-18,6; 2,3</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,77; 116,33</t>
+          <t>-60,21; 100,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,26; 18,65</t>
+          <t>-77,44; 26,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,77; 116,33</t>
+          <t>-60,21; 100,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-77,26; 18,65</t>
+          <t>-77,44; 26,79</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,63; -3,84</t>
+          <t>-13,23; -3,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 1,4</t>
+          <t>-8,42; 1,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,63; -3,84</t>
+          <t>-13,23; -3,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 1,4</t>
+          <t>-8,42; 1,16</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,9; -24,62</t>
+          <t>-65,11; -23,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,43; 11,73</t>
+          <t>-42,39; 8,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,9; -24,62</t>
+          <t>-65,11; -23,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,43; 11,73</t>
+          <t>-42,39; 8,67</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,82; -9,69</t>
+          <t>-18,23; -9,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -2,52</t>
+          <t>-11,72; -2,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,82; -9,69</t>
+          <t>-18,23; -9,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -2,52</t>
+          <t>-11,72; -2,19</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,57; -37,84</t>
+          <t>-60,06; -38,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,78; -10,1</t>
+          <t>-38,93; -8,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,57; -37,84</t>
+          <t>-60,06; -38,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,78; -10,1</t>
+          <t>-38,93; -8,69</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,73; -4,61</t>
+          <t>-14,03; -4,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,42; 12,97</t>
+          <t>1,28; 13,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,73; -4,61</t>
+          <t>-14,03; -4,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,42; 12,97</t>
+          <t>1,28; 13,32</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,88; -18,13</t>
+          <t>-50,03; -19,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,18; 57,21</t>
+          <t>4,0; 57,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,88; -18,13</t>
+          <t>-50,03; -19,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,18; 57,21</t>
+          <t>4,0; 57,07</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 0,33</t>
+          <t>-7,79; 0,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,1</t>
+          <t>-0,82; 8,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 0,33</t>
+          <t>-7,79; 0,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,1</t>
+          <t>-0,82; 8,43</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,23; 1,99</t>
+          <t>-30,16; 3,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 37,2</t>
+          <t>-3,06; 39,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,23; 1,99</t>
+          <t>-30,16; 3,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 37,2</t>
+          <t>-3,06; 39,35</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -6,37</t>
+          <t>-10,67; -6,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,15</t>
+          <t>-2,57; 2,36</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -6,37</t>
+          <t>-10,67; -6,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,15</t>
+          <t>-2,57; 2,36</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,42; -27,67</t>
+          <t>-42,36; -27,78</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 9,52</t>
+          <t>-10,39; 10,63</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-42,42; -27,67</t>
+          <t>-42,36; -27,78</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 9,52</t>
+          <t>-10,39; 10,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42C_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-7,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,12</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-7,31</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,12</t>
+          <t>-4,19</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 9,79</t>
+          <t>-12,13; -3,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 2,3</t>
+          <t>-8,6; 0,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 9,79</t>
+          <t>-12,13; -3,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 2,3</t>
+          <t>-8,6; 0,58</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,78%</t>
+          <t>-42,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-49,26%</t>
+          <t>-24,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,78%</t>
+          <t>-42,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-49,26%</t>
+          <t>-24,45%</t>
         </is>
       </c>
     </row>
@@ -725,29 +725,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-60,21; 100,12</t>
+          <t>-60,25; -20,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,44; 26,79</t>
+          <t>-44,08; 4,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,21; 100,12</t>
+          <t>-60,25; -20,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-77,44; 26,79</t>
+          <t>-44,08; 4,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,33</t>
+          <t>-13,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,33</t>
+          <t>-13,79</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-6,53</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,23; -3,74</t>
+          <t>-18,23; -9,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 1,16</t>
+          <t>-11,5; -2,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,23; -3,74</t>
+          <t>-18,23; -9,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 1,16</t>
+          <t>-11,5; -2,0</t>
         </is>
       </c>
     </row>
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-48,3%</t>
+          <t>-49,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-20,7%</t>
+          <t>-23,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-48,3%</t>
+          <t>-49,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,7%</t>
+          <t>-23,6%</t>
         </is>
       </c>
     </row>
@@ -881,29 +881,29 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,11; -23,25</t>
+          <t>-60,06; -38,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,39; 8,67</t>
+          <t>-38,23; -7,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,11; -23,25</t>
+          <t>-60,06; -38,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,39; 8,67</t>
+          <t>-38,23; -7,98</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -923,22 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-13,79</t>
+          <t>-9,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,76</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-13,79</t>
+          <t>-9,07</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,76</t>
+          <t>5,76</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,23; -9,74</t>
+          <t>-14,03; -4,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,72; -2,19</t>
+          <t>-3,52; 11,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,23; -9,74</t>
+          <t>-14,03; -4,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,72; -2,19</t>
+          <t>-3,52; 11,92</t>
         </is>
       </c>
     </row>
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-49,83%</t>
+          <t>-35,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-24,42%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-49,83%</t>
+          <t>-35,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,42%</t>
+          <t>22,83%</t>
         </is>
       </c>
     </row>
@@ -1037,29 +1037,29 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,06; -38,42</t>
+          <t>-50,03; -19,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,93; -8,69</t>
+          <t>-9,5; 52,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,06; -38,42</t>
+          <t>-50,03; -19,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,93; -8,69</t>
+          <t>-9,5; 52,07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1079,22 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,07</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-9,07</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>1,73</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -4,55</t>
+          <t>-7,79; 0,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 13,32</t>
+          <t>-6,22; 6,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -4,55</t>
+          <t>-7,79; 0,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 13,32</t>
+          <t>-6,22; 6,82</t>
         </is>
       </c>
     </row>
@@ -1155,22 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-35,96%</t>
+          <t>-15,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-35,96%</t>
+          <t>-15,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>7,3%</t>
         </is>
       </c>
     </row>
@@ -1193,29 +1193,29 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-50,03; -19,56</t>
+          <t>-30,16; 3,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,0; 57,07</t>
+          <t>-25,24; 30,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-50,03; -19,56</t>
+          <t>-30,16; 3,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,0; 57,07</t>
+          <t>-25,24; 30,86</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1235,22 +1235,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-8,46</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-8,46</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>-0,73</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 0,79</t>
+          <t>-10,67; -6,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 8,43</t>
+          <t>-4,39; 1,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 0,79</t>
+          <t>-10,67; -6,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 8,43</t>
+          <t>-4,39; 1,86</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-15,97%</t>
+          <t>-35,36%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>-3,07%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-15,97%</t>
+          <t>-35,36%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>-3,07%</t>
         </is>
       </c>
     </row>
@@ -1349,190 +1349,34 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 3,67</t>
+          <t>-42,36; -27,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 39,35</t>
+          <t>-17,55; 8,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 3,67</t>
+          <t>-42,36; -27,78</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 39,35</t>
+          <t>-17,55; 8,0</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-8,46</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-8,46</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-10,67; -6,37</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 2,36</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-10,67; -6,37</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 2,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-35,36%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-0,22%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-35,36%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-0,22%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-42,36; -27,78</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-10,39; 10,63</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-42,36; -27,78</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-10,39; 10,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P42C_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Habitat-trans_camb.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,13; -3,19</t>
+          <t>-11,78; -2,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 0,58</t>
+          <t>-8,5; 0,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,13; -3,19</t>
+          <t>-11,78; -2,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 0,58</t>
+          <t>-8,5; 0,16</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-60,25; -20,68</t>
+          <t>-59,9; -17,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,08; 4,27</t>
+          <t>-43,6; 2,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,25; -20,68</t>
+          <t>-59,9; -17,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,08; 4,27</t>
+          <t>-43,6; 2,3</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,23; -9,74</t>
+          <t>-18,01; -9,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -2,0</t>
+          <t>-10,94; -1,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,23; -9,74</t>
+          <t>-18,01; -9,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -2,0</t>
+          <t>-10,94; -1,96</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,06; -38,42</t>
+          <t>-59,44; -36,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,23; -7,98</t>
+          <t>-36,44; -7,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,06; -38,42</t>
+          <t>-59,44; -36,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,23; -7,98</t>
+          <t>-36,44; -7,77</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -4,55</t>
+          <t>-14,39; -4,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 11,92</t>
+          <t>-2,38; 11,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -4,55</t>
+          <t>-14,39; -4,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 11,92</t>
+          <t>-2,38; 11,78</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,03; -19,56</t>
+          <t>-50,33; -18,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 52,07</t>
+          <t>-6,8; 50,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,03; -19,56</t>
+          <t>-50,33; -18,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 52,07</t>
+          <t>-6,8; 50,28</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 0,79</t>
+          <t>-7,72; 0,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 6,82</t>
+          <t>-6,45; 7,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 0,79</t>
+          <t>-7,72; 0,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 6,82</t>
+          <t>-6,45; 7,11</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 3,67</t>
+          <t>-29,96; 1,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 30,86</t>
+          <t>-26,07; 32,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 3,67</t>
+          <t>-29,96; 1,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 30,86</t>
+          <t>-26,07; 32,12</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -6,37</t>
+          <t>-10,63; -6,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,86</t>
+          <t>-4,04; 1,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -6,37</t>
+          <t>-10,63; -6,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,86</t>
+          <t>-4,04; 1,74</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,36; -27,78</t>
+          <t>-42,15; -28,23</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 8,0</t>
+          <t>-16,22; 7,53</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-42,36; -27,78</t>
+          <t>-42,15; -28,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 8,0</t>
+          <t>-16,22; 7,53</t>
         </is>
       </c>
     </row>
